--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.13372186163333E-17</v>
+        <v>1.376127323043572E-15</v>
       </c>
       <c r="E2">
-        <v>1.13372186163333E-17</v>
+        <v>1.376127323043572E-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999998428</v>
+        <v>0.9999999999999969</v>
       </c>
       <c r="E3">
-        <v>0.9999999999998428</v>
+        <v>0.9999999999999969</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9999999999998193</v>
+        <v>0.5255307017843521</v>
       </c>
       <c r="E5">
-        <v>1.807443084089755E-13</v>
+        <v>0.4744692982156479</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.40887343093725E-05</v>
+        <v>9.730464143880366E-09</v>
       </c>
       <c r="E7">
-        <v>0.9999359112656906</v>
+        <v>0.9999999902695359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009105781967034068</v>
+        <v>0.0001501716521676274</v>
       </c>
       <c r="E8">
-        <v>0.990894218032966</v>
+        <v>0.9998498283478324</v>
       </c>
       <c r="F8">
-        <v>231.4933013916016</v>
+        <v>215.6007537841797</v>
       </c>
       <c r="G8">
         <v>0.4285714285714285</v>
